--- a/nurse_schedule_data_small_VA (1).xlsx
+++ b/nurse_schedule_data_small_VA (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maguiremcmahon/Desktop/Fall23/DOR2/Project1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maguiremcmahon/Desktop/Fall23/DOR2/Project1/Project1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12459B3-0276-C849-9897-643A84CC568E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D4AFB3-D785-4442-8C14-829067F0B958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="79">
   <si>
     <t>Roanoke</t>
   </si>
@@ -191,13 +191,85 @@
   </si>
   <si>
     <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>Nurse_6</t>
+  </si>
+  <si>
+    <t>Nurse_7</t>
+  </si>
+  <si>
+    <t>Nurse_8</t>
+  </si>
+  <si>
+    <t>Nurse_9</t>
+  </si>
+  <si>
+    <t>Nurse_10</t>
+  </si>
+  <si>
+    <t>Nurse_11</t>
+  </si>
+  <si>
+    <t>Nurse_12</t>
+  </si>
+  <si>
+    <t>Nurse_13</t>
+  </si>
+  <si>
+    <t>Nurse_14</t>
+  </si>
+  <si>
+    <t>Nurse_15</t>
+  </si>
+  <si>
+    <t>Nurse_16</t>
+  </si>
+  <si>
+    <t>Nurse_17</t>
+  </si>
+  <si>
+    <t>Nurse_18</t>
+  </si>
+  <si>
+    <t>Nurse_19</t>
+  </si>
+  <si>
+    <t>Nurse_20</t>
+  </si>
+  <si>
+    <t>Nurse_21</t>
+  </si>
+  <si>
+    <t>Nurse_22</t>
+  </si>
+  <si>
+    <t>Nurse_23</t>
+  </si>
+  <si>
+    <t>Nurse_24</t>
+  </si>
+  <si>
+    <t>Nurse_25</t>
+  </si>
+  <si>
+    <t>Nurse_26</t>
+  </si>
+  <si>
+    <t>Nurse_27</t>
+  </si>
+  <si>
+    <t>Nurse_28</t>
+  </si>
+  <si>
+    <t>Nurse_29</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +282,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -592,9 +670,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -646,7 +726,200 @@
         <v>15</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1460,7 +1733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/nurse_schedule_data_small_VA (1).xlsx
+++ b/nurse_schedule_data_small_VA (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maguiremcmahon/Desktop/Fall23/DOR2/Project1/Project1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D4AFB3-D785-4442-8C14-829067F0B958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAB8DCD-26D8-D648-9708-B45B210A44DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-40" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,27 @@
     <sheet name="medication_adherence" sheetId="5" r:id="rId5"/>
     <sheet name="physical_therapy_adherence" sheetId="6" r:id="rId6"/>
     <sheet name="distance_matrix" sheetId="7" r:id="rId7"/>
+    <sheet name="copy" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="63">
   <si>
     <t>Roanoke</t>
   </si>
@@ -215,54 +229,6 @@
   </si>
   <si>
     <t>Nurse_13</t>
-  </si>
-  <si>
-    <t>Nurse_14</t>
-  </si>
-  <si>
-    <t>Nurse_15</t>
-  </si>
-  <si>
-    <t>Nurse_16</t>
-  </si>
-  <si>
-    <t>Nurse_17</t>
-  </si>
-  <si>
-    <t>Nurse_18</t>
-  </si>
-  <si>
-    <t>Nurse_19</t>
-  </si>
-  <si>
-    <t>Nurse_20</t>
-  </si>
-  <si>
-    <t>Nurse_21</t>
-  </si>
-  <si>
-    <t>Nurse_22</t>
-  </si>
-  <si>
-    <t>Nurse_23</t>
-  </si>
-  <si>
-    <t>Nurse_24</t>
-  </si>
-  <si>
-    <t>Nurse_25</t>
-  </si>
-  <si>
-    <t>Nurse_26</t>
-  </si>
-  <si>
-    <t>Nurse_27</t>
-  </si>
-  <si>
-    <t>Nurse_28</t>
-  </si>
-  <si>
-    <t>Nurse_29</t>
   </si>
 </sst>
 </file>
@@ -634,9 +600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -670,10 +634,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -691,7 +655,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -699,7 +663,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -707,7 +671,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -715,7 +679,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -731,7 +695,7 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -739,7 +703,7 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -747,175 +711,7 @@
         <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -928,9 +724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1064,7 +858,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1134,7 +930,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J2" sqref="J2:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1434,7 +1230,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:J7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1822,4 +1620,131 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F6D6F1-7386-8248-A816-1A96DDEE60F7}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/nurse_schedule_data_small_VA (1).xlsx
+++ b/nurse_schedule_data_small_VA (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maguiremcmahon/Desktop/Fall23/DOR2/Project1/Project1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAB8DCD-26D8-D648-9708-B45B210A44DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E503E1-9D1C-6146-BD82-55785FC36E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-40" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
